--- a/results/FrequencyTables/25808449_T2.xlsx
+++ b/results/FrequencyTables/25808449_T2.xlsx
@@ -468,70 +468,70 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0125</v>
+        <v>0.0041407867494824</v>
       </c>
       <c r="D2">
-        <v>0.0125</v>
+        <v>0.0020703933747412</v>
       </c>
       <c r="E2">
-        <v>0.0125</v>
+        <v>0.0144927536231884</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.0020703933747412</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0.0125</v>
+        <v>0.0020703933747412</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.025</v>
+        <v>0.0062111801242236</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.025</v>
+        <v>0.0041407867494824</v>
       </c>
       <c r="M2">
-        <v>0.975</v>
+        <v>0.975155279503106</v>
       </c>
       <c r="N2">
-        <v>0.0375</v>
+        <v>0.0289855072463768</v>
       </c>
       <c r="O2">
-        <v>0.9875</v>
+        <v>0.958592132505176</v>
       </c>
       <c r="P2">
-        <v>0.9625</v>
+        <v>0.954451345755694</v>
       </c>
       <c r="Q2">
-        <v>0.0125</v>
+        <v>0.0020703933747412</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.989648033126294</v>
       </c>
       <c r="T2">
-        <v>0.0125</v>
+        <v>0.0020703933747412</v>
       </c>
       <c r="U2">
-        <v>0.9875</v>
+        <v>0.995859213250518</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0.9375</v>
+        <v>0.884057971014493</v>
       </c>
       <c r="X2">
-        <v>0.0125</v>
+        <v>0.062111801242236</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,16 +539,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.975</v>
+        <v>0.987577639751553</v>
       </c>
       <c r="C3">
-        <v>0.9625</v>
+        <v>0.981366459627329</v>
       </c>
       <c r="D3">
-        <v>0.9625</v>
+        <v>0.985507246376812</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.0082815734989648</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -557,55 +557,55 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.05</v>
+        <v>0.0248447204968944</v>
       </c>
       <c r="I3">
-        <v>0.0125</v>
+        <v>0.0020703933747412</v>
       </c>
       <c r="J3">
-        <v>0.0125</v>
+        <v>0.0020703933747412</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.9625</v>
+        <v>0.98343685300207</v>
       </c>
       <c r="M3">
-        <v>0.0125</v>
+        <v>0.0041407867494824</v>
       </c>
       <c r="N3">
-        <v>0.0125</v>
+        <v>0.0062111801242236</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.0125</v>
+        <v>0.010351966873706</v>
       </c>
       <c r="Q3">
-        <v>0.8875</v>
+        <v>0.946169772256729</v>
       </c>
       <c r="R3">
-        <v>0.0125</v>
+        <v>0.010351966873706</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.975</v>
+        <v>0.989648033126294</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.0020703933747412</v>
       </c>
       <c r="V3">
-        <v>0.9625</v>
+        <v>0.985507246376812</v>
       </c>
       <c r="W3">
-        <v>0.0125</v>
+        <v>0.0993788819875776</v>
       </c>
       <c r="X3">
-        <v>0.95</v>
+        <v>0.921325051759834</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.025</v>
+        <v>0.0041407867494824</v>
       </c>
       <c r="C4">
-        <v>0.0125</v>
+        <v>0.0082815734989648</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.0082815734989648</v>
       </c>
       <c r="E4">
-        <v>0.0125</v>
+        <v>0.0082815734989648</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.997929606625259</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0125</v>
+        <v>0.010351966873706</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.9625</v>
+        <v>0.991718426501035</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.0125</v>
+        <v>0.010351966873706</v>
       </c>
       <c r="M4">
-        <v>0.0125</v>
+        <v>0.0186335403726708</v>
       </c>
       <c r="N4">
-        <v>0.9375</v>
+        <v>0.954451345755694</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.010351966873706</v>
       </c>
       <c r="P4">
-        <v>0.0125</v>
+        <v>0.031055900621118</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.025</v>
+        <v>0.0041407867494824</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.0020703933747412</v>
       </c>
       <c r="T4">
-        <v>0.0125</v>
+        <v>0.0020703933747412</v>
       </c>
       <c r="U4">
-        <v>0.0125</v>
+        <v>0.0020703933747412</v>
       </c>
       <c r="V4">
-        <v>0.025</v>
+        <v>0.0124223602484472</v>
       </c>
       <c r="W4">
-        <v>0.05</v>
+        <v>0.0144927536231884</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.0020703933747412</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,16 +687,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0062111801242236</v>
       </c>
       <c r="C5">
-        <v>0.0125</v>
+        <v>0.0062111801242236</v>
       </c>
       <c r="D5">
-        <v>0.025</v>
+        <v>0.0041407867494824</v>
       </c>
       <c r="E5">
-        <v>0.975</v>
+        <v>0.968944099378882</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.925</v>
+        <v>0.962732919254658</v>
       </c>
       <c r="I5">
-        <v>0.9875</v>
+        <v>0.997929606625259</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -717,43 +717,43 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.0020703933747412</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.0020703933747412</v>
       </c>
       <c r="N5">
-        <v>0.0125</v>
+        <v>0.010351966873706</v>
       </c>
       <c r="O5">
-        <v>0.0125</v>
+        <v>0.0289855072463768</v>
       </c>
       <c r="P5">
-        <v>0.0125</v>
+        <v>0.0020703933747412</v>
       </c>
       <c r="Q5">
-        <v>0.1</v>
+        <v>0.05175983436853</v>
       </c>
       <c r="R5">
-        <v>0.9625</v>
+        <v>0.985507246376812</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.0082815734989648</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.0062111801242236</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0125</v>
+        <v>0.0020703933747412</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.0020703933747412</v>
       </c>
       <c r="X5">
-        <v>0.0375</v>
+        <v>0.0144927536231884</v>
       </c>
     </row>
   </sheetData>
